--- a/Género/Violencia contra Mujer/Meses.xlsx
+++ b/Género/Violencia contra Mujer/Meses.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ferna\DATA INTELLIGENCE Dropbox\Diseño DATA's\Tablas Madre\Género\Violencia contra Mujer\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA INTELLIGENCE Dropbox\Diseño DATA's\Tablas Madre\Género\Violencia contra Mujer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01CF458E-0BFA-49EA-989F-4FEADF5F107A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEA4C00A-4741-4CA6-84EC-69BEE17C2859}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1C671ED5-3137-46FA-9BCB-61C2FAAC7349}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{1C671ED5-3137-46FA-9BCB-61C2FAAC7349}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -1057,19 +1057,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90255FB2-FC5C-4262-BA4F-48D59C4329F2}">
   <dimension ref="A1:E217"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A190" workbookViewId="0">
-      <selection activeCell="A218" sqref="A218"/>
+    <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1086,7 +1086,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1104,7 +1104,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1123,7 +1123,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -1142,7 +1142,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -1161,7 +1161,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -1180,7 +1180,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -1199,7 +1199,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -1218,7 +1218,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
@@ -1237,7 +1237,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
@@ -1256,7 +1256,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
@@ -1275,7 +1275,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
@@ -1294,7 +1294,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>149</v>
       </c>
@@ -1313,7 +1313,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>147</v>
       </c>
@@ -1332,7 +1332,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>145</v>
       </c>
@@ -1351,7 +1351,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>143</v>
       </c>
@@ -1370,7 +1370,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>141</v>
       </c>
@@ -1389,7 +1389,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>139</v>
       </c>
@@ -1408,7 +1408,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>137</v>
       </c>
@@ -1427,7 +1427,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>16</v>
       </c>
@@ -1442,11 +1442,11 @@
         <v>2</v>
       </c>
       <c r="E20">
-        <f>+E2</f>
+        <f t="shared" ref="E20:E30" si="2">+E2</f>
         <v>2012</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>17</v>
       </c>
@@ -1462,11 +1462,11 @@
         <v>2</v>
       </c>
       <c r="E21">
-        <f>+E3</f>
+        <f t="shared" si="2"/>
         <v>2013</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>18</v>
       </c>
@@ -1482,11 +1482,11 @@
         <v>2</v>
       </c>
       <c r="E22">
-        <f>+E4</f>
+        <f t="shared" si="2"/>
         <v>2014</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>19</v>
       </c>
@@ -1502,11 +1502,11 @@
         <v>2</v>
       </c>
       <c r="E23">
-        <f>+E5</f>
+        <f t="shared" si="2"/>
         <v>2015</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>20</v>
       </c>
@@ -1522,11 +1522,11 @@
         <v>2</v>
       </c>
       <c r="E24">
-        <f>+E6</f>
+        <f t="shared" si="2"/>
         <v>2016</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>21</v>
       </c>
@@ -1542,11 +1542,11 @@
         <v>2</v>
       </c>
       <c r="E25">
-        <f>+E7</f>
+        <f t="shared" si="2"/>
         <v>2017</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>22</v>
       </c>
@@ -1562,11 +1562,11 @@
         <v>2</v>
       </c>
       <c r="E26">
-        <f>+E8</f>
+        <f t="shared" si="2"/>
         <v>2018</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>23</v>
       </c>
@@ -1582,11 +1582,11 @@
         <v>2</v>
       </c>
       <c r="E27">
-        <f>+E9</f>
+        <f t="shared" si="2"/>
         <v>2019</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>24</v>
       </c>
@@ -1602,11 +1602,11 @@
         <v>2</v>
       </c>
       <c r="E28">
-        <f>+E10</f>
+        <f t="shared" si="2"/>
         <v>2020</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>25</v>
       </c>
@@ -1622,11 +1622,11 @@
         <v>2</v>
       </c>
       <c r="E29">
-        <f>+E11</f>
+        <f t="shared" si="2"/>
         <v>2021</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>26</v>
       </c>
@@ -1642,16 +1642,16 @@
         <v>2</v>
       </c>
       <c r="E30">
-        <f>+E12</f>
+        <f t="shared" si="2"/>
         <v>2022</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>150</v>
       </c>
       <c r="B31" t="str">
-        <f t="shared" ref="B31:B37" si="2">+D31&amp;"-"&amp;C31&amp;"-"&amp;E31</f>
+        <f t="shared" ref="B31:B37" si="3">+D31&amp;"-"&amp;C31&amp;"-"&amp;E31</f>
         <v>2-1-2011</v>
       </c>
       <c r="C31">
@@ -1662,16 +1662,16 @@
         <v>2</v>
       </c>
       <c r="E31">
-        <f t="shared" ref="E31:E37" si="3">+E13</f>
+        <f t="shared" ref="E31:E37" si="4">+E13</f>
         <v>2011</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>148</v>
       </c>
       <c r="B32" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2-1-2010</v>
       </c>
       <c r="C32">
@@ -1682,16 +1682,16 @@
         <v>2</v>
       </c>
       <c r="E32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2010</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>146</v>
       </c>
       <c r="B33" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2-1-2009</v>
       </c>
       <c r="C33">
@@ -1702,16 +1702,16 @@
         <v>2</v>
       </c>
       <c r="E33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2009</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>144</v>
       </c>
       <c r="B34" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2-1-2008</v>
       </c>
       <c r="C34">
@@ -1722,16 +1722,16 @@
         <v>2</v>
       </c>
       <c r="E34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2008</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>142</v>
       </c>
       <c r="B35" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2-1-2007</v>
       </c>
       <c r="C35">
@@ -1742,16 +1742,16 @@
         <v>2</v>
       </c>
       <c r="E35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2007</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>140</v>
       </c>
       <c r="B36" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2-1-2006</v>
       </c>
       <c r="C36">
@@ -1762,16 +1762,16 @@
         <v>2</v>
       </c>
       <c r="E36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2006</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>138</v>
       </c>
       <c r="B37" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2-1-2005</v>
       </c>
       <c r="C37">
@@ -1782,11 +1782,11 @@
         <v>2</v>
       </c>
       <c r="E37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2005</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>27</v>
       </c>
@@ -1801,11 +1801,11 @@
         <v>3</v>
       </c>
       <c r="E38">
-        <f>+E20</f>
+        <f t="shared" ref="E38:E48" si="5">+E20</f>
         <v>2012</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>28</v>
       </c>
@@ -1821,11 +1821,11 @@
         <v>3</v>
       </c>
       <c r="E39">
-        <f>+E21</f>
+        <f t="shared" si="5"/>
         <v>2013</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>29</v>
       </c>
@@ -1841,11 +1841,11 @@
         <v>3</v>
       </c>
       <c r="E40">
-        <f>+E22</f>
+        <f t="shared" si="5"/>
         <v>2014</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>30</v>
       </c>
@@ -1861,11 +1861,11 @@
         <v>3</v>
       </c>
       <c r="E41">
-        <f>+E23</f>
+        <f t="shared" si="5"/>
         <v>2015</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>31</v>
       </c>
@@ -1881,11 +1881,11 @@
         <v>3</v>
       </c>
       <c r="E42">
-        <f>+E24</f>
+        <f t="shared" si="5"/>
         <v>2016</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>32</v>
       </c>
@@ -1901,11 +1901,11 @@
         <v>3</v>
       </c>
       <c r="E43">
-        <f>+E25</f>
+        <f t="shared" si="5"/>
         <v>2017</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>33</v>
       </c>
@@ -1921,11 +1921,11 @@
         <v>3</v>
       </c>
       <c r="E44">
-        <f>+E26</f>
+        <f t="shared" si="5"/>
         <v>2018</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>34</v>
       </c>
@@ -1941,11 +1941,11 @@
         <v>3</v>
       </c>
       <c r="E45">
-        <f>+E27</f>
+        <f t="shared" si="5"/>
         <v>2019</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>35</v>
       </c>
@@ -1961,11 +1961,11 @@
         <v>3</v>
       </c>
       <c r="E46">
-        <f>+E28</f>
+        <f t="shared" si="5"/>
         <v>2020</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>36</v>
       </c>
@@ -1981,11 +1981,11 @@
         <v>3</v>
       </c>
       <c r="E47">
-        <f>+E29</f>
+        <f t="shared" si="5"/>
         <v>2021</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>37</v>
       </c>
@@ -2001,16 +2001,16 @@
         <v>3</v>
       </c>
       <c r="E48">
-        <f>+E30</f>
+        <f t="shared" si="5"/>
         <v>2022</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>152</v>
       </c>
       <c r="B49" t="str">
-        <f t="shared" ref="B49:B55" si="4">+D49&amp;"-"&amp;C49&amp;"-"&amp;E49</f>
+        <f t="shared" ref="B49:B55" si="6">+D49&amp;"-"&amp;C49&amp;"-"&amp;E49</f>
         <v>3-1-2011</v>
       </c>
       <c r="C49">
@@ -2021,16 +2021,16 @@
         <v>3</v>
       </c>
       <c r="E49">
-        <f t="shared" ref="E49:E55" si="5">+E31</f>
+        <f t="shared" ref="E49:E55" si="7">+E31</f>
         <v>2011</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>153</v>
       </c>
       <c r="B50" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3-1-2010</v>
       </c>
       <c r="C50">
@@ -2041,16 +2041,16 @@
         <v>3</v>
       </c>
       <c r="E50">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2010</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>154</v>
       </c>
       <c r="B51" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3-1-2009</v>
       </c>
       <c r="C51">
@@ -2061,16 +2061,16 @@
         <v>3</v>
       </c>
       <c r="E51">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2009</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>155</v>
       </c>
       <c r="B52" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3-1-2008</v>
       </c>
       <c r="C52">
@@ -2081,16 +2081,16 @@
         <v>3</v>
       </c>
       <c r="E52">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2008</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>156</v>
       </c>
       <c r="B53" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3-1-2007</v>
       </c>
       <c r="C53">
@@ -2101,16 +2101,16 @@
         <v>3</v>
       </c>
       <c r="E53">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2007</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>157</v>
       </c>
       <c r="B54" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3-1-2006</v>
       </c>
       <c r="C54">
@@ -2121,16 +2121,16 @@
         <v>3</v>
       </c>
       <c r="E54">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2006</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>151</v>
       </c>
       <c r="B55" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3-1-2005</v>
       </c>
       <c r="C55">
@@ -2141,11 +2141,11 @@
         <v>3</v>
       </c>
       <c r="E55">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2005</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>38</v>
       </c>
@@ -2160,11 +2160,11 @@
         <v>4</v>
       </c>
       <c r="E56">
-        <f>+E38</f>
+        <f t="shared" ref="E56:E66" si="8">+E38</f>
         <v>2012</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>39</v>
       </c>
@@ -2180,11 +2180,11 @@
         <v>4</v>
       </c>
       <c r="E57">
-        <f>+E39</f>
+        <f t="shared" si="8"/>
         <v>2013</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>40</v>
       </c>
@@ -2200,11 +2200,11 @@
         <v>4</v>
       </c>
       <c r="E58">
-        <f>+E40</f>
+        <f t="shared" si="8"/>
         <v>2014</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>41</v>
       </c>
@@ -2220,11 +2220,11 @@
         <v>4</v>
       </c>
       <c r="E59">
-        <f>+E41</f>
+        <f t="shared" si="8"/>
         <v>2015</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>42</v>
       </c>
@@ -2240,11 +2240,11 @@
         <v>4</v>
       </c>
       <c r="E60">
-        <f>+E42</f>
+        <f t="shared" si="8"/>
         <v>2016</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>43</v>
       </c>
@@ -2260,11 +2260,11 @@
         <v>4</v>
       </c>
       <c r="E61">
-        <f>+E43</f>
+        <f t="shared" si="8"/>
         <v>2017</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>44</v>
       </c>
@@ -2280,11 +2280,11 @@
         <v>4</v>
       </c>
       <c r="E62">
-        <f>+E44</f>
+        <f t="shared" si="8"/>
         <v>2018</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>45</v>
       </c>
@@ -2300,11 +2300,11 @@
         <v>4</v>
       </c>
       <c r="E63">
-        <f>+E45</f>
+        <f t="shared" si="8"/>
         <v>2019</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>46</v>
       </c>
@@ -2320,11 +2320,11 @@
         <v>4</v>
       </c>
       <c r="E64">
-        <f>+E46</f>
+        <f t="shared" si="8"/>
         <v>2020</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>47</v>
       </c>
@@ -2340,11 +2340,11 @@
         <v>4</v>
       </c>
       <c r="E65">
-        <f>+E47</f>
+        <f t="shared" si="8"/>
         <v>2021</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>48</v>
       </c>
@@ -2360,16 +2360,16 @@
         <v>4</v>
       </c>
       <c r="E66">
-        <f>+E48</f>
+        <f t="shared" si="8"/>
         <v>2022</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>158</v>
       </c>
       <c r="B67" t="str">
-        <f t="shared" ref="B67:B73" si="6">+D67&amp;"-"&amp;C67&amp;"-"&amp;E67</f>
+        <f t="shared" ref="B67:B73" si="9">+D67&amp;"-"&amp;C67&amp;"-"&amp;E67</f>
         <v>4-1-2011</v>
       </c>
       <c r="C67">
@@ -2380,16 +2380,16 @@
         <v>4</v>
       </c>
       <c r="E67">
-        <f t="shared" ref="E67:E73" si="7">+E49</f>
+        <f t="shared" ref="E67:E73" si="10">+E49</f>
         <v>2011</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>159</v>
       </c>
       <c r="B68" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>4-1-2010</v>
       </c>
       <c r="C68">
@@ -2400,16 +2400,16 @@
         <v>4</v>
       </c>
       <c r="E68">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>2010</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>160</v>
       </c>
       <c r="B69" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>4-1-2009</v>
       </c>
       <c r="C69">
@@ -2420,16 +2420,16 @@
         <v>4</v>
       </c>
       <c r="E69">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>2009</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>161</v>
       </c>
       <c r="B70" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>4-1-2008</v>
       </c>
       <c r="C70">
@@ -2440,16 +2440,16 @@
         <v>4</v>
       </c>
       <c r="E70">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>2008</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>162</v>
       </c>
       <c r="B71" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>4-1-2007</v>
       </c>
       <c r="C71">
@@ -2460,16 +2460,16 @@
         <v>4</v>
       </c>
       <c r="E71">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>2007</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>163</v>
       </c>
       <c r="B72" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>4-1-2006</v>
       </c>
       <c r="C72">
@@ -2480,16 +2480,16 @@
         <v>4</v>
       </c>
       <c r="E72">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>2006</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>164</v>
       </c>
       <c r="B73" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>4-1-2005</v>
       </c>
       <c r="C73">
@@ -2500,11 +2500,11 @@
         <v>4</v>
       </c>
       <c r="E73">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>2005</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>49</v>
       </c>
@@ -2519,11 +2519,11 @@
         <v>5</v>
       </c>
       <c r="E74">
-        <f>+E56</f>
+        <f t="shared" ref="E74:E84" si="11">+E56</f>
         <v>2012</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>50</v>
       </c>
@@ -2539,11 +2539,11 @@
         <v>5</v>
       </c>
       <c r="E75">
-        <f>+E57</f>
+        <f t="shared" si="11"/>
         <v>2013</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>51</v>
       </c>
@@ -2559,11 +2559,11 @@
         <v>5</v>
       </c>
       <c r="E76">
-        <f>+E58</f>
+        <f t="shared" si="11"/>
         <v>2014</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>52</v>
       </c>
@@ -2579,11 +2579,11 @@
         <v>5</v>
       </c>
       <c r="E77">
-        <f>+E59</f>
+        <f t="shared" si="11"/>
         <v>2015</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>53</v>
       </c>
@@ -2599,11 +2599,11 @@
         <v>5</v>
       </c>
       <c r="E78">
-        <f>+E60</f>
+        <f t="shared" si="11"/>
         <v>2016</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>54</v>
       </c>
@@ -2619,11 +2619,11 @@
         <v>5</v>
       </c>
       <c r="E79">
-        <f>+E61</f>
+        <f t="shared" si="11"/>
         <v>2017</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>55</v>
       </c>
@@ -2639,11 +2639,11 @@
         <v>5</v>
       </c>
       <c r="E80">
-        <f>+E62</f>
+        <f t="shared" si="11"/>
         <v>2018</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>56</v>
       </c>
@@ -2659,11 +2659,11 @@
         <v>5</v>
       </c>
       <c r="E81">
-        <f>+E63</f>
+        <f t="shared" si="11"/>
         <v>2019</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>57</v>
       </c>
@@ -2679,11 +2679,11 @@
         <v>5</v>
       </c>
       <c r="E82">
-        <f>+E64</f>
+        <f t="shared" si="11"/>
         <v>2020</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>58</v>
       </c>
@@ -2699,11 +2699,11 @@
         <v>5</v>
       </c>
       <c r="E83">
-        <f>+E65</f>
+        <f t="shared" si="11"/>
         <v>2021</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>59</v>
       </c>
@@ -2719,16 +2719,16 @@
         <v>5</v>
       </c>
       <c r="E84">
-        <f>+E66</f>
+        <f t="shared" si="11"/>
         <v>2022</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>165</v>
       </c>
       <c r="B85" t="str">
-        <f t="shared" ref="B85:B91" si="8">+D85&amp;"-"&amp;C85&amp;"-"&amp;E85</f>
+        <f t="shared" ref="B85:B91" si="12">+D85&amp;"-"&amp;C85&amp;"-"&amp;E85</f>
         <v>5-1-2011</v>
       </c>
       <c r="C85">
@@ -2739,16 +2739,16 @@
         <v>5</v>
       </c>
       <c r="E85">
-        <f t="shared" ref="E85:E91" si="9">+E67</f>
+        <f t="shared" ref="E85:E91" si="13">+E67</f>
         <v>2011</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>166</v>
       </c>
       <c r="B86" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>5-1-2010</v>
       </c>
       <c r="C86">
@@ -2759,16 +2759,16 @@
         <v>5</v>
       </c>
       <c r="E86">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>2010</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>167</v>
       </c>
       <c r="B87" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>5-1-2009</v>
       </c>
       <c r="C87">
@@ -2779,16 +2779,16 @@
         <v>5</v>
       </c>
       <c r="E87">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>2009</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>168</v>
       </c>
       <c r="B88" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>5-1-2008</v>
       </c>
       <c r="C88">
@@ -2799,16 +2799,16 @@
         <v>5</v>
       </c>
       <c r="E88">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>2008</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>169</v>
       </c>
       <c r="B89" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>5-1-2007</v>
       </c>
       <c r="C89">
@@ -2819,16 +2819,16 @@
         <v>5</v>
       </c>
       <c r="E89">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>2007</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>170</v>
       </c>
       <c r="B90" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>5-1-2006</v>
       </c>
       <c r="C90">
@@ -2839,16 +2839,16 @@
         <v>5</v>
       </c>
       <c r="E90">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>2006</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>171</v>
       </c>
       <c r="B91" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>5-1-2005</v>
       </c>
       <c r="C91">
@@ -2859,11 +2859,11 @@
         <v>5</v>
       </c>
       <c r="E91">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>2005</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>60</v>
       </c>
@@ -2878,11 +2878,11 @@
         <v>6</v>
       </c>
       <c r="E92">
-        <f>+E74</f>
+        <f t="shared" ref="E92:E102" si="14">+E74</f>
         <v>2012</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>61</v>
       </c>
@@ -2898,11 +2898,11 @@
         <v>6</v>
       </c>
       <c r="E93">
-        <f>+E75</f>
+        <f t="shared" si="14"/>
         <v>2013</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>62</v>
       </c>
@@ -2918,11 +2918,11 @@
         <v>6</v>
       </c>
       <c r="E94">
-        <f>+E76</f>
+        <f t="shared" si="14"/>
         <v>2014</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>63</v>
       </c>
@@ -2938,11 +2938,11 @@
         <v>6</v>
       </c>
       <c r="E95">
-        <f>+E77</f>
+        <f t="shared" si="14"/>
         <v>2015</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>64</v>
       </c>
@@ -2958,276 +2958,276 @@
         <v>6</v>
       </c>
       <c r="E96">
-        <f>+E78</f>
+        <f t="shared" si="14"/>
         <v>2016</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B97" t="str">
-        <f t="shared" ref="B97:B202" si="10">+D97&amp;"-"&amp;C97&amp;"-"&amp;E97</f>
+        <f t="shared" ref="B97:B202" si="15">+D97&amp;"-"&amp;C97&amp;"-"&amp;E97</f>
         <v>6-1-2017</v>
       </c>
       <c r="C97">
         <v>1</v>
       </c>
       <c r="D97">
-        <f t="shared" ref="D97:D202" si="11">+D96</f>
+        <f t="shared" ref="D97:D202" si="16">+D96</f>
         <v>6</v>
       </c>
       <c r="E97">
-        <f>+E79</f>
+        <f t="shared" si="14"/>
         <v>2017</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B98" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>6-1-2018</v>
       </c>
       <c r="C98">
         <v>1</v>
       </c>
       <c r="D98">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>6</v>
       </c>
       <c r="E98">
-        <f>+E80</f>
+        <f t="shared" si="14"/>
         <v>2018</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B99" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>6-1-2019</v>
       </c>
       <c r="C99">
         <v>1</v>
       </c>
       <c r="D99">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>6</v>
       </c>
       <c r="E99">
-        <f>+E81</f>
+        <f t="shared" si="14"/>
         <v>2019</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>68</v>
       </c>
       <c r="B100" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>6-1-2020</v>
       </c>
       <c r="C100">
         <v>1</v>
       </c>
       <c r="D100">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>6</v>
       </c>
       <c r="E100">
-        <f>+E82</f>
+        <f t="shared" si="14"/>
         <v>2020</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B101" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>6-1-2021</v>
       </c>
       <c r="C101">
         <v>1</v>
       </c>
       <c r="D101">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>6</v>
       </c>
       <c r="E101">
-        <f>+E83</f>
+        <f t="shared" si="14"/>
         <v>2021</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B102" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>6-1-2022</v>
       </c>
       <c r="C102">
         <v>1</v>
       </c>
       <c r="D102">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>6</v>
       </c>
       <c r="E102">
-        <f>+E84</f>
+        <f t="shared" si="14"/>
         <v>2022</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>172</v>
       </c>
       <c r="B103" t="str">
-        <f t="shared" ref="B103:B109" si="12">+D103&amp;"-"&amp;C103&amp;"-"&amp;E103</f>
+        <f t="shared" ref="B103:B109" si="17">+D103&amp;"-"&amp;C103&amp;"-"&amp;E103</f>
         <v>6-1-2011</v>
       </c>
       <c r="C103">
         <v>1</v>
       </c>
       <c r="D103">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>6</v>
       </c>
       <c r="E103">
-        <f t="shared" ref="E103:E109" si="13">+E85</f>
+        <f t="shared" ref="E103:E109" si="18">+E85</f>
         <v>2011</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>173</v>
       </c>
       <c r="B104" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>6-1-2010</v>
       </c>
       <c r="C104">
         <v>1</v>
       </c>
       <c r="D104">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>6</v>
       </c>
       <c r="E104">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>2010</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>174</v>
       </c>
       <c r="B105" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>6-1-2009</v>
       </c>
       <c r="C105">
         <v>1</v>
       </c>
       <c r="D105">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>6</v>
       </c>
       <c r="E105">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>2009</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B106" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>6-1-2008</v>
       </c>
       <c r="C106">
         <v>1</v>
       </c>
       <c r="D106">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>6</v>
       </c>
       <c r="E106">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>2008</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
         <v>176</v>
       </c>
       <c r="B107" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>6-1-2007</v>
       </c>
       <c r="C107">
         <v>1</v>
       </c>
       <c r="D107">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>6</v>
       </c>
       <c r="E107">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>2007</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
         <v>177</v>
       </c>
       <c r="B108" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>6-1-2006</v>
       </c>
       <c r="C108">
         <v>1</v>
       </c>
       <c r="D108">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>6</v>
       </c>
       <c r="E108">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>2006</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
         <v>178</v>
       </c>
       <c r="B109" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>6-1-2005</v>
       </c>
       <c r="C109">
         <v>1</v>
       </c>
       <c r="D109">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>6</v>
       </c>
       <c r="E109">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>2005</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B110" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>7-1-2012</v>
       </c>
       <c r="C110">
@@ -3237,356 +3237,356 @@
         <v>7</v>
       </c>
       <c r="E110">
-        <f>+E92</f>
+        <f t="shared" ref="E110:E120" si="19">+E92</f>
         <v>2012</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B111" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>7-1-2013</v>
       </c>
       <c r="C111">
         <v>1</v>
       </c>
       <c r="D111">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>7</v>
       </c>
       <c r="E111">
-        <f>+E93</f>
+        <f t="shared" si="19"/>
         <v>2013</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B112" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>7-1-2014</v>
       </c>
       <c r="C112">
         <v>1</v>
       </c>
       <c r="D112">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>7</v>
       </c>
       <c r="E112">
-        <f>+E94</f>
+        <f t="shared" si="19"/>
         <v>2014</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B113" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>7-1-2015</v>
       </c>
       <c r="C113">
         <v>1</v>
       </c>
       <c r="D113">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>7</v>
       </c>
       <c r="E113">
-        <f>+E95</f>
+        <f t="shared" si="19"/>
         <v>2015</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
         <v>75</v>
       </c>
       <c r="B114" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>7-1-2016</v>
       </c>
       <c r="C114">
         <v>1</v>
       </c>
       <c r="D114">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>7</v>
       </c>
       <c r="E114">
-        <f>+E96</f>
+        <f t="shared" si="19"/>
         <v>2016</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B115" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>7-1-2017</v>
       </c>
       <c r="C115">
         <v>1</v>
       </c>
       <c r="D115">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>7</v>
       </c>
       <c r="E115">
-        <f>+E97</f>
+        <f t="shared" si="19"/>
         <v>2017</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
         <v>77</v>
       </c>
       <c r="B116" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>7-1-2018</v>
       </c>
       <c r="C116">
         <v>1</v>
       </c>
       <c r="D116">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>7</v>
       </c>
       <c r="E116">
-        <f>+E98</f>
+        <f t="shared" si="19"/>
         <v>2018</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
         <v>78</v>
       </c>
       <c r="B117" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>7-1-2019</v>
       </c>
       <c r="C117">
         <v>1</v>
       </c>
       <c r="D117">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>7</v>
       </c>
       <c r="E117">
-        <f>+E99</f>
+        <f t="shared" si="19"/>
         <v>2019</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
         <v>79</v>
       </c>
       <c r="B118" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>7-1-2020</v>
       </c>
       <c r="C118">
         <v>1</v>
       </c>
       <c r="D118">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>7</v>
       </c>
       <c r="E118">
-        <f>+E100</f>
+        <f t="shared" si="19"/>
         <v>2020</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
         <v>80</v>
       </c>
       <c r="B119" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>7-1-2021</v>
       </c>
       <c r="C119">
         <v>1</v>
       </c>
       <c r="D119">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>7</v>
       </c>
       <c r="E119">
-        <f>+E101</f>
+        <f t="shared" si="19"/>
         <v>2021</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
         <v>81</v>
       </c>
       <c r="B120" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>7-1-2022</v>
       </c>
       <c r="C120">
         <v>1</v>
       </c>
       <c r="D120">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>7</v>
       </c>
       <c r="E120">
-        <f>+E102</f>
+        <f t="shared" si="19"/>
         <v>2022</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
         <v>179</v>
       </c>
       <c r="B121" t="str">
-        <f t="shared" ref="B121:B127" si="14">+D121&amp;"-"&amp;C121&amp;"-"&amp;E121</f>
+        <f t="shared" ref="B121:B127" si="20">+D121&amp;"-"&amp;C121&amp;"-"&amp;E121</f>
         <v>7-1-2011</v>
       </c>
       <c r="C121">
         <v>1</v>
       </c>
       <c r="D121">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>7</v>
       </c>
       <c r="E121">
-        <f t="shared" ref="E121:E127" si="15">+E103</f>
+        <f t="shared" ref="E121:E127" si="21">+E103</f>
         <v>2011</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
         <v>180</v>
       </c>
       <c r="B122" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>7-1-2010</v>
       </c>
       <c r="C122">
         <v>1</v>
       </c>
       <c r="D122">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>7</v>
       </c>
       <c r="E122">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>2010</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
         <v>181</v>
       </c>
       <c r="B123" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>7-1-2009</v>
       </c>
       <c r="C123">
         <v>1</v>
       </c>
       <c r="D123">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>7</v>
       </c>
       <c r="E123">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>2009</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
         <v>182</v>
       </c>
       <c r="B124" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>7-1-2008</v>
       </c>
       <c r="C124">
         <v>1</v>
       </c>
       <c r="D124">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>7</v>
       </c>
       <c r="E124">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>2008</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
         <v>183</v>
       </c>
       <c r="B125" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>7-1-2007</v>
       </c>
       <c r="C125">
         <v>1</v>
       </c>
       <c r="D125">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>7</v>
       </c>
       <c r="E125">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>2007</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
         <v>184</v>
       </c>
       <c r="B126" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>7-1-2006</v>
       </c>
       <c r="C126">
         <v>1</v>
       </c>
       <c r="D126">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>7</v>
       </c>
       <c r="E126">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>2006</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
         <v>185</v>
       </c>
       <c r="B127" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>7-1-2005</v>
       </c>
       <c r="C127">
         <v>1</v>
       </c>
       <c r="D127">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>7</v>
       </c>
       <c r="E127">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>2005</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
         <v>82</v>
       </c>
       <c r="B128" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>8-1-2012</v>
       </c>
       <c r="C128">
@@ -3596,356 +3596,356 @@
         <v>8</v>
       </c>
       <c r="E128">
-        <f>+E110</f>
+        <f t="shared" ref="E128:E138" si="22">+E110</f>
         <v>2012</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
         <v>83</v>
       </c>
       <c r="B129" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>8-1-2013</v>
       </c>
       <c r="C129">
         <v>1</v>
       </c>
       <c r="D129">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>8</v>
       </c>
       <c r="E129">
-        <f>+E111</f>
+        <f t="shared" si="22"/>
         <v>2013</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
         <v>84</v>
       </c>
       <c r="B130" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>8-1-2014</v>
       </c>
       <c r="C130">
         <v>1</v>
       </c>
       <c r="D130">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>8</v>
       </c>
       <c r="E130">
-        <f>+E112</f>
+        <f t="shared" si="22"/>
         <v>2014</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B131" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>8-1-2015</v>
       </c>
       <c r="C131">
         <v>1</v>
       </c>
       <c r="D131">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>8</v>
       </c>
       <c r="E131">
-        <f>+E113</f>
+        <f t="shared" si="22"/>
         <v>2015</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
         <v>86</v>
       </c>
       <c r="B132" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>8-1-2016</v>
       </c>
       <c r="C132">
         <v>1</v>
       </c>
       <c r="D132">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>8</v>
       </c>
       <c r="E132">
-        <f>+E114</f>
+        <f t="shared" si="22"/>
         <v>2016</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B133" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>8-1-2017</v>
       </c>
       <c r="C133">
         <v>1</v>
       </c>
       <c r="D133">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>8</v>
       </c>
       <c r="E133">
-        <f>+E115</f>
+        <f t="shared" si="22"/>
         <v>2017</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B134" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>8-1-2018</v>
       </c>
       <c r="C134">
         <v>1</v>
       </c>
       <c r="D134">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>8</v>
       </c>
       <c r="E134">
-        <f>+E116</f>
+        <f t="shared" si="22"/>
         <v>2018</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B135" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>8-1-2019</v>
       </c>
       <c r="C135">
         <v>1</v>
       </c>
       <c r="D135">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>8</v>
       </c>
       <c r="E135">
-        <f>+E117</f>
+        <f t="shared" si="22"/>
         <v>2019</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B136" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>8-1-2020</v>
       </c>
       <c r="C136">
         <v>1</v>
       </c>
       <c r="D136">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>8</v>
       </c>
       <c r="E136">
-        <f>+E118</f>
+        <f t="shared" si="22"/>
         <v>2020</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
         <v>91</v>
       </c>
       <c r="B137" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>8-1-2021</v>
       </c>
       <c r="C137">
         <v>1</v>
       </c>
       <c r="D137">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>8</v>
       </c>
       <c r="E137">
-        <f>+E119</f>
+        <f t="shared" si="22"/>
         <v>2021</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
         <v>92</v>
       </c>
       <c r="B138" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>8-1-2022</v>
       </c>
       <c r="C138">
         <v>1</v>
       </c>
       <c r="D138">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>8</v>
       </c>
       <c r="E138">
-        <f>+E120</f>
+        <f t="shared" si="22"/>
         <v>2022</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
         <v>186</v>
       </c>
       <c r="B139" t="str">
-        <f t="shared" ref="B139:B145" si="16">+D139&amp;"-"&amp;C139&amp;"-"&amp;E139</f>
+        <f t="shared" ref="B139:B145" si="23">+D139&amp;"-"&amp;C139&amp;"-"&amp;E139</f>
         <v>8-2-2011</v>
       </c>
       <c r="C139">
         <v>2</v>
       </c>
       <c r="D139">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>8</v>
       </c>
       <c r="E139">
-        <f t="shared" ref="E139:E145" si="17">+E121</f>
+        <f t="shared" ref="E139:E145" si="24">+E121</f>
         <v>2011</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
         <v>187</v>
       </c>
       <c r="B140" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>8-3-2010</v>
       </c>
       <c r="C140">
         <v>3</v>
       </c>
       <c r="D140">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>8</v>
       </c>
       <c r="E140">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>2010</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
         <v>188</v>
       </c>
       <c r="B141" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>8-4-2009</v>
       </c>
       <c r="C141">
         <v>4</v>
       </c>
       <c r="D141">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>8</v>
       </c>
       <c r="E141">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>2009</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
         <v>189</v>
       </c>
       <c r="B142" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>8-5-2008</v>
       </c>
       <c r="C142">
         <v>5</v>
       </c>
       <c r="D142">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>8</v>
       </c>
       <c r="E142">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>2008</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
         <v>190</v>
       </c>
       <c r="B143" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>8-6-2007</v>
       </c>
       <c r="C143">
         <v>6</v>
       </c>
       <c r="D143">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>8</v>
       </c>
       <c r="E143">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>2007</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
         <v>191</v>
       </c>
       <c r="B144" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>8-7-2006</v>
       </c>
       <c r="C144">
         <v>7</v>
       </c>
       <c r="D144">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>8</v>
       </c>
       <c r="E144">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>2006</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
         <v>192</v>
       </c>
       <c r="B145" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>8-8-2005</v>
       </c>
       <c r="C145">
         <v>8</v>
       </c>
       <c r="D145">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>8</v>
       </c>
       <c r="E145">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>2005</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
         <v>93</v>
       </c>
       <c r="B146" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>9-1-2012</v>
       </c>
       <c r="C146">
@@ -3955,356 +3955,356 @@
         <v>9</v>
       </c>
       <c r="E146">
-        <f>+E128</f>
+        <f t="shared" ref="E146:E156" si="25">+E128</f>
         <v>2012</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
         <v>94</v>
       </c>
       <c r="B147" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>9-1-2013</v>
       </c>
       <c r="C147">
         <v>1</v>
       </c>
       <c r="D147">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>9</v>
       </c>
       <c r="E147">
-        <f>+E129</f>
+        <f t="shared" si="25"/>
         <v>2013</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
         <v>95</v>
       </c>
       <c r="B148" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>9-1-2014</v>
       </c>
       <c r="C148">
         <v>1</v>
       </c>
       <c r="D148">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>9</v>
       </c>
       <c r="E148">
-        <f>+E130</f>
+        <f t="shared" si="25"/>
         <v>2014</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
         <v>96</v>
       </c>
       <c r="B149" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>9-1-2015</v>
       </c>
       <c r="C149">
         <v>1</v>
       </c>
       <c r="D149">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>9</v>
       </c>
       <c r="E149">
-        <f>+E131</f>
+        <f t="shared" si="25"/>
         <v>2015</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B150" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>9-1-2016</v>
       </c>
       <c r="C150">
         <v>1</v>
       </c>
       <c r="D150">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>9</v>
       </c>
       <c r="E150">
-        <f>+E132</f>
+        <f t="shared" si="25"/>
         <v>2016</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
         <v>98</v>
       </c>
       <c r="B151" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>9-1-2017</v>
       </c>
       <c r="C151">
         <v>1</v>
       </c>
       <c r="D151">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>9</v>
       </c>
       <c r="E151">
-        <f>+E133</f>
+        <f t="shared" si="25"/>
         <v>2017</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
         <v>99</v>
       </c>
       <c r="B152" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>9-1-2018</v>
       </c>
       <c r="C152">
         <v>1</v>
       </c>
       <c r="D152">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>9</v>
       </c>
       <c r="E152">
-        <f>+E134</f>
+        <f t="shared" si="25"/>
         <v>2018</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
         <v>100</v>
       </c>
       <c r="B153" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>9-1-2019</v>
       </c>
       <c r="C153">
         <v>1</v>
       </c>
       <c r="D153">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>9</v>
       </c>
       <c r="E153">
-        <f>+E135</f>
+        <f t="shared" si="25"/>
         <v>2019</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
         <v>101</v>
       </c>
       <c r="B154" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>9-1-2020</v>
       </c>
       <c r="C154">
         <v>1</v>
       </c>
       <c r="D154">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>9</v>
       </c>
       <c r="E154">
-        <f>+E136</f>
+        <f t="shared" si="25"/>
         <v>2020</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
         <v>102</v>
       </c>
       <c r="B155" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>9-1-2021</v>
       </c>
       <c r="C155">
         <v>1</v>
       </c>
       <c r="D155">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>9</v>
       </c>
       <c r="E155">
-        <f>+E137</f>
+        <f t="shared" si="25"/>
         <v>2021</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
         <v>103</v>
       </c>
       <c r="B156" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>9-1-2022</v>
       </c>
       <c r="C156">
         <v>1</v>
       </c>
       <c r="D156">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>9</v>
       </c>
       <c r="E156">
-        <f>+E138</f>
+        <f t="shared" si="25"/>
         <v>2022</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
         <v>193</v>
       </c>
       <c r="B157" t="str">
-        <f t="shared" ref="B157:B163" si="18">+D157&amp;"-"&amp;C157&amp;"-"&amp;E157</f>
+        <f t="shared" ref="B157:B163" si="26">+D157&amp;"-"&amp;C157&amp;"-"&amp;E157</f>
         <v>9-1-2011</v>
       </c>
       <c r="C157">
         <v>1</v>
       </c>
       <c r="D157">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>9</v>
       </c>
       <c r="E157">
-        <f t="shared" ref="E157:E163" si="19">+E139</f>
+        <f t="shared" ref="E157:E163" si="27">+E139</f>
         <v>2011</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
         <v>194</v>
       </c>
       <c r="B158" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>9-1-2010</v>
       </c>
       <c r="C158">
         <v>1</v>
       </c>
       <c r="D158">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>9</v>
       </c>
       <c r="E158">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>2010</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
         <v>195</v>
       </c>
       <c r="B159" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>9-1-2009</v>
       </c>
       <c r="C159">
         <v>1</v>
       </c>
       <c r="D159">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>9</v>
       </c>
       <c r="E159">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>2009</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
         <v>196</v>
       </c>
       <c r="B160" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>9-1-2008</v>
       </c>
       <c r="C160">
         <v>1</v>
       </c>
       <c r="D160">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>9</v>
       </c>
       <c r="E160">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>2008</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
         <v>197</v>
       </c>
       <c r="B161" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>9-1-2007</v>
       </c>
       <c r="C161">
         <v>1</v>
       </c>
       <c r="D161">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>9</v>
       </c>
       <c r="E161">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>2007</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
         <v>198</v>
       </c>
       <c r="B162" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>9-1-2006</v>
       </c>
       <c r="C162">
         <v>1</v>
       </c>
       <c r="D162">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>9</v>
       </c>
       <c r="E162">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>2006</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
         <v>199</v>
       </c>
       <c r="B163" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>9-1-2005</v>
       </c>
       <c r="C163">
         <v>1</v>
       </c>
       <c r="D163">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>9</v>
       </c>
       <c r="E163">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>2005</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
         <v>104</v>
       </c>
       <c r="B164" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>10-1-2012</v>
       </c>
       <c r="C164">
@@ -4314,356 +4314,356 @@
         <v>10</v>
       </c>
       <c r="E164">
-        <f>+E146</f>
+        <f t="shared" ref="E164:E174" si="28">+E146</f>
         <v>2012</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
         <v>105</v>
       </c>
       <c r="B165" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>10-1-2013</v>
       </c>
       <c r="C165">
         <v>1</v>
       </c>
       <c r="D165">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>10</v>
       </c>
       <c r="E165">
-        <f>+E147</f>
+        <f t="shared" si="28"/>
         <v>2013</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
         <v>106</v>
       </c>
       <c r="B166" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>10-1-2014</v>
       </c>
       <c r="C166">
         <v>1</v>
       </c>
       <c r="D166">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>10</v>
       </c>
       <c r="E166">
-        <f>+E148</f>
+        <f t="shared" si="28"/>
         <v>2014</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
         <v>107</v>
       </c>
       <c r="B167" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>10-1-2015</v>
       </c>
       <c r="C167">
         <v>1</v>
       </c>
       <c r="D167">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>10</v>
       </c>
       <c r="E167">
-        <f>+E149</f>
+        <f t="shared" si="28"/>
         <v>2015</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
         <v>108</v>
       </c>
       <c r="B168" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>10-1-2016</v>
       </c>
       <c r="C168">
         <v>1</v>
       </c>
       <c r="D168">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>10</v>
       </c>
       <c r="E168">
-        <f>+E150</f>
+        <f t="shared" si="28"/>
         <v>2016</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
         <v>109</v>
       </c>
       <c r="B169" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>10-1-2017</v>
       </c>
       <c r="C169">
         <v>1</v>
       </c>
       <c r="D169">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>10</v>
       </c>
       <c r="E169">
-        <f>+E151</f>
+        <f t="shared" si="28"/>
         <v>2017</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
         <v>110</v>
       </c>
       <c r="B170" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>10-1-2018</v>
       </c>
       <c r="C170">
         <v>1</v>
       </c>
       <c r="D170">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>10</v>
       </c>
       <c r="E170">
-        <f>+E152</f>
+        <f t="shared" si="28"/>
         <v>2018</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
         <v>111</v>
       </c>
       <c r="B171" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>10-1-2019</v>
       </c>
       <c r="C171">
         <v>1</v>
       </c>
       <c r="D171">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>10</v>
       </c>
       <c r="E171">
-        <f>+E153</f>
+        <f t="shared" si="28"/>
         <v>2019</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
         <v>112</v>
       </c>
       <c r="B172" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>10-1-2020</v>
       </c>
       <c r="C172">
         <v>1</v>
       </c>
       <c r="D172">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>10</v>
       </c>
       <c r="E172">
-        <f>+E154</f>
+        <f t="shared" si="28"/>
         <v>2020</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
         <v>113</v>
       </c>
       <c r="B173" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>10-1-2021</v>
       </c>
       <c r="C173">
         <v>1</v>
       </c>
       <c r="D173">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>10</v>
       </c>
       <c r="E173">
-        <f>+E155</f>
+        <f t="shared" si="28"/>
         <v>2021</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
         <v>114</v>
       </c>
       <c r="B174" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>10-1-2022</v>
       </c>
       <c r="C174">
         <v>1</v>
       </c>
       <c r="D174">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>10</v>
       </c>
       <c r="E174">
-        <f>+E156</f>
+        <f t="shared" si="28"/>
         <v>2022</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
         <v>200</v>
       </c>
       <c r="B175" t="str">
-        <f t="shared" ref="B175:B181" si="20">+D175&amp;"-"&amp;C175&amp;"-"&amp;E175</f>
+        <f t="shared" ref="B175:B181" si="29">+D175&amp;"-"&amp;C175&amp;"-"&amp;E175</f>
         <v>10-1-2011</v>
       </c>
       <c r="C175">
         <v>1</v>
       </c>
       <c r="D175">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>10</v>
       </c>
       <c r="E175">
-        <f t="shared" ref="E175:E181" si="21">+E157</f>
+        <f t="shared" ref="E175:E181" si="30">+E157</f>
         <v>2011</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
         <v>201</v>
       </c>
       <c r="B176" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="29"/>
         <v>10-1-2010</v>
       </c>
       <c r="C176">
         <v>1</v>
       </c>
       <c r="D176">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>10</v>
       </c>
       <c r="E176">
-        <f t="shared" si="21"/>
+        <f t="shared" si="30"/>
         <v>2010</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
         <v>202</v>
       </c>
       <c r="B177" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="29"/>
         <v>10-1-2009</v>
       </c>
       <c r="C177">
         <v>1</v>
       </c>
       <c r="D177">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>10</v>
       </c>
       <c r="E177">
-        <f t="shared" si="21"/>
+        <f t="shared" si="30"/>
         <v>2009</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
         <v>203</v>
       </c>
       <c r="B178" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="29"/>
         <v>10-1-2008</v>
       </c>
       <c r="C178">
         <v>1</v>
       </c>
       <c r="D178">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>10</v>
       </c>
       <c r="E178">
-        <f t="shared" si="21"/>
+        <f t="shared" si="30"/>
         <v>2008</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
         <v>204</v>
       </c>
       <c r="B179" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="29"/>
         <v>10-1-2007</v>
       </c>
       <c r="C179">
         <v>1</v>
       </c>
       <c r="D179">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>10</v>
       </c>
       <c r="E179">
-        <f t="shared" si="21"/>
+        <f t="shared" si="30"/>
         <v>2007</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
         <v>205</v>
       </c>
       <c r="B180" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="29"/>
         <v>10-1-2006</v>
       </c>
       <c r="C180">
         <v>1</v>
       </c>
       <c r="D180">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>10</v>
       </c>
       <c r="E180">
-        <f t="shared" si="21"/>
+        <f t="shared" si="30"/>
         <v>2006</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A181" s="1" t="s">
         <v>206</v>
       </c>
       <c r="B181" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="29"/>
         <v>10-1-2005</v>
       </c>
       <c r="C181">
         <v>1</v>
       </c>
       <c r="D181">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>10</v>
       </c>
       <c r="E181">
-        <f t="shared" si="21"/>
+        <f t="shared" si="30"/>
         <v>2005</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A182" s="1" t="s">
         <v>115</v>
       </c>
       <c r="B182" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>11-1-2012</v>
       </c>
       <c r="C182">
@@ -4673,356 +4673,356 @@
         <v>11</v>
       </c>
       <c r="E182">
-        <f>+E164</f>
+        <f t="shared" ref="E182:E192" si="31">+E164</f>
         <v>2012</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A183" s="1" t="s">
         <v>116</v>
       </c>
       <c r="B183" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>11-1-2013</v>
       </c>
       <c r="C183">
         <v>1</v>
       </c>
       <c r="D183">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>11</v>
       </c>
       <c r="E183">
-        <f>+E165</f>
+        <f t="shared" si="31"/>
         <v>2013</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
         <v>117</v>
       </c>
       <c r="B184" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>11-1-2014</v>
       </c>
       <c r="C184">
         <v>1</v>
       </c>
       <c r="D184">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>11</v>
       </c>
       <c r="E184">
-        <f>+E166</f>
+        <f t="shared" si="31"/>
         <v>2014</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185" s="1" t="s">
         <v>118</v>
       </c>
       <c r="B185" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>11-1-2015</v>
       </c>
       <c r="C185">
         <v>1</v>
       </c>
       <c r="D185">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>11</v>
       </c>
       <c r="E185">
-        <f>+E167</f>
+        <f t="shared" si="31"/>
         <v>2015</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186" s="1" t="s">
         <v>119</v>
       </c>
       <c r="B186" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>11-1-2016</v>
       </c>
       <c r="C186">
         <v>1</v>
       </c>
       <c r="D186">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>11</v>
       </c>
       <c r="E186">
-        <f>+E168</f>
+        <f t="shared" si="31"/>
         <v>2016</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A187" s="1" t="s">
         <v>120</v>
       </c>
       <c r="B187" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>11-1-2017</v>
       </c>
       <c r="C187">
         <v>1</v>
       </c>
       <c r="D187">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>11</v>
       </c>
       <c r="E187">
-        <f>+E169</f>
+        <f t="shared" si="31"/>
         <v>2017</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
         <v>121</v>
       </c>
       <c r="B188" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>11-1-2018</v>
       </c>
       <c r="C188">
         <v>1</v>
       </c>
       <c r="D188">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>11</v>
       </c>
       <c r="E188">
-        <f>+E170</f>
+        <f t="shared" si="31"/>
         <v>2018</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A189" s="1" t="s">
         <v>122</v>
       </c>
       <c r="B189" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>11-1-2019</v>
       </c>
       <c r="C189">
         <v>1</v>
       </c>
       <c r="D189">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>11</v>
       </c>
       <c r="E189">
-        <f>+E171</f>
+        <f t="shared" si="31"/>
         <v>2019</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A190" s="1" t="s">
         <v>123</v>
       </c>
       <c r="B190" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>11-1-2020</v>
       </c>
       <c r="C190">
         <v>1</v>
       </c>
       <c r="D190">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>11</v>
       </c>
       <c r="E190">
-        <f>+E172</f>
+        <f t="shared" si="31"/>
         <v>2020</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A191" s="1" t="s">
         <v>124</v>
       </c>
       <c r="B191" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>11-1-2021</v>
       </c>
       <c r="C191">
         <v>1</v>
       </c>
       <c r="D191">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>11</v>
       </c>
       <c r="E191">
-        <f>+E173</f>
+        <f t="shared" si="31"/>
         <v>2021</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A192" s="1" t="s">
         <v>125</v>
       </c>
       <c r="B192" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>11-1-2022</v>
       </c>
       <c r="C192">
         <v>1</v>
       </c>
       <c r="D192">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>11</v>
       </c>
       <c r="E192">
-        <f>+E174</f>
+        <f t="shared" si="31"/>
         <v>2022</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A193" s="1" t="s">
         <v>207</v>
       </c>
       <c r="B193" t="str">
-        <f t="shared" ref="B193:B199" si="22">+D193&amp;"-"&amp;C193&amp;"-"&amp;E193</f>
+        <f t="shared" ref="B193:B199" si="32">+D193&amp;"-"&amp;C193&amp;"-"&amp;E193</f>
         <v>11-1-2011</v>
       </c>
       <c r="C193">
         <v>1</v>
       </c>
       <c r="D193">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>11</v>
       </c>
       <c r="E193">
-        <f t="shared" ref="E193:E199" si="23">+E175</f>
+        <f t="shared" ref="E193:E199" si="33">+E175</f>
         <v>2011</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A194" s="1" t="s">
         <v>208</v>
       </c>
       <c r="B194" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v>11-1-2010</v>
       </c>
       <c r="C194">
         <v>1</v>
       </c>
       <c r="D194">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>11</v>
       </c>
       <c r="E194">
-        <f t="shared" si="23"/>
+        <f t="shared" si="33"/>
         <v>2010</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A195" s="1" t="s">
         <v>209</v>
       </c>
       <c r="B195" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v>11-1-2009</v>
       </c>
       <c r="C195">
         <v>1</v>
       </c>
       <c r="D195">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>11</v>
       </c>
       <c r="E195">
-        <f t="shared" si="23"/>
+        <f t="shared" si="33"/>
         <v>2009</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A196" s="1" t="s">
         <v>210</v>
       </c>
       <c r="B196" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v>11-1-2008</v>
       </c>
       <c r="C196">
         <v>1</v>
       </c>
       <c r="D196">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>11</v>
       </c>
       <c r="E196">
-        <f t="shared" si="23"/>
+        <f t="shared" si="33"/>
         <v>2008</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197" s="1" t="s">
         <v>211</v>
       </c>
       <c r="B197" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v>11-1-2007</v>
       </c>
       <c r="C197">
         <v>1</v>
       </c>
       <c r="D197">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>11</v>
       </c>
       <c r="E197">
-        <f t="shared" si="23"/>
+        <f t="shared" si="33"/>
         <v>2007</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A198" s="1" t="s">
         <v>212</v>
       </c>
       <c r="B198" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v>11-1-2006</v>
       </c>
       <c r="C198">
         <v>1</v>
       </c>
       <c r="D198">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>11</v>
       </c>
       <c r="E198">
-        <f t="shared" si="23"/>
+        <f t="shared" si="33"/>
         <v>2006</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A199" s="1" t="s">
         <v>213</v>
       </c>
       <c r="B199" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v>11-1-2005</v>
       </c>
       <c r="C199">
         <v>1</v>
       </c>
       <c r="D199">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>11</v>
       </c>
       <c r="E199">
-        <f t="shared" si="23"/>
+        <f t="shared" si="33"/>
         <v>2005</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A200" s="1" t="s">
         <v>126</v>
       </c>
       <c r="B200" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>12-1-2012</v>
       </c>
       <c r="C200">
@@ -5032,343 +5032,343 @@
         <v>12</v>
       </c>
       <c r="E200">
-        <f>+E182</f>
+        <f t="shared" ref="E200:E210" si="34">+E182</f>
         <v>2012</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A201" s="1" t="s">
         <v>127</v>
       </c>
       <c r="B201" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>12-1-2013</v>
       </c>
       <c r="C201">
         <v>1</v>
       </c>
       <c r="D201">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>12</v>
       </c>
       <c r="E201">
-        <f>+E183</f>
+        <f t="shared" si="34"/>
         <v>2013</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A202" s="1" t="s">
         <v>128</v>
       </c>
       <c r="B202" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>12-1-2014</v>
       </c>
       <c r="C202">
         <v>1</v>
       </c>
       <c r="D202">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>12</v>
       </c>
       <c r="E202">
-        <f>+E184</f>
+        <f t="shared" si="34"/>
         <v>2014</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A203" s="1" t="s">
         <v>129</v>
       </c>
       <c r="B203" t="str">
-        <f t="shared" ref="B203:B210" si="24">+D203&amp;"-"&amp;C203&amp;"-"&amp;E203</f>
+        <f t="shared" ref="B203:B210" si="35">+D203&amp;"-"&amp;C203&amp;"-"&amp;E203</f>
         <v>12-1-2015</v>
       </c>
       <c r="C203">
         <v>1</v>
       </c>
       <c r="D203">
-        <f t="shared" ref="D203:D217" si="25">+D202</f>
+        <f t="shared" ref="D203:D217" si="36">+D202</f>
         <v>12</v>
       </c>
       <c r="E203">
-        <f>+E185</f>
+        <f t="shared" si="34"/>
         <v>2015</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A204" s="1" t="s">
         <v>130</v>
       </c>
       <c r="B204" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v>12-1-2016</v>
       </c>
       <c r="C204">
         <v>1</v>
       </c>
       <c r="D204">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v>12</v>
       </c>
       <c r="E204">
-        <f>+E186</f>
+        <f t="shared" si="34"/>
         <v>2016</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A205" s="1" t="s">
         <v>131</v>
       </c>
       <c r="B205" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v>12-1-2017</v>
       </c>
       <c r="C205">
         <v>1</v>
       </c>
       <c r="D205">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v>12</v>
       </c>
       <c r="E205">
-        <f>+E187</f>
+        <f t="shared" si="34"/>
         <v>2017</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A206" s="1" t="s">
         <v>132</v>
       </c>
       <c r="B206" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v>12-1-2018</v>
       </c>
       <c r="C206">
         <v>1</v>
       </c>
       <c r="D206">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v>12</v>
       </c>
       <c r="E206">
-        <f>+E188</f>
+        <f t="shared" si="34"/>
         <v>2018</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A207" s="1" t="s">
         <v>133</v>
       </c>
       <c r="B207" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v>12-1-2019</v>
       </c>
       <c r="C207">
         <v>1</v>
       </c>
       <c r="D207">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v>12</v>
       </c>
       <c r="E207">
-        <f>+E189</f>
+        <f t="shared" si="34"/>
         <v>2019</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A208" s="1" t="s">
         <v>134</v>
       </c>
       <c r="B208" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v>12-1-2020</v>
       </c>
       <c r="C208">
         <v>1</v>
       </c>
       <c r="D208">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v>12</v>
       </c>
       <c r="E208">
-        <f>+E190</f>
+        <f t="shared" si="34"/>
         <v>2020</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A209" s="1" t="s">
         <v>135</v>
       </c>
       <c r="B209" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v>12-1-2021</v>
       </c>
       <c r="C209">
         <v>1</v>
       </c>
       <c r="D209">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v>12</v>
       </c>
       <c r="E209">
-        <f>+E191</f>
+        <f t="shared" si="34"/>
         <v>2021</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A210" s="1" t="s">
         <v>136</v>
       </c>
       <c r="B210" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v>12-1-2022</v>
       </c>
       <c r="C210">
         <v>1</v>
       </c>
       <c r="D210">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v>12</v>
       </c>
       <c r="E210">
-        <f>+E192</f>
+        <f t="shared" si="34"/>
         <v>2022</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A211" s="1" t="s">
         <v>214</v>
       </c>
       <c r="B211" t="str">
-        <f t="shared" ref="B211:B217" si="26">+D211&amp;"-"&amp;C211&amp;"-"&amp;E211</f>
+        <f t="shared" ref="B211:B217" si="37">+D211&amp;"-"&amp;C211&amp;"-"&amp;E211</f>
         <v>12-1-2011</v>
       </c>
       <c r="C211">
         <v>1</v>
       </c>
       <c r="D211">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v>12</v>
       </c>
       <c r="E211">
-        <f t="shared" ref="E211:E216" si="27">+E193</f>
+        <f t="shared" ref="E211:E216" si="38">+E193</f>
         <v>2011</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A212" s="1" t="s">
         <v>215</v>
       </c>
       <c r="B212" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="37"/>
         <v>12-1-2010</v>
       </c>
       <c r="C212">
         <v>1</v>
       </c>
       <c r="D212">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v>12</v>
       </c>
       <c r="E212">
-        <f t="shared" si="27"/>
+        <f t="shared" si="38"/>
         <v>2010</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A213" s="1" t="s">
         <v>216</v>
       </c>
       <c r="B213" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="37"/>
         <v>12-1-2009</v>
       </c>
       <c r="C213">
         <v>1</v>
       </c>
       <c r="D213">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v>12</v>
       </c>
       <c r="E213">
-        <f t="shared" si="27"/>
+        <f t="shared" si="38"/>
         <v>2009</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A214" s="1" t="s">
         <v>217</v>
       </c>
       <c r="B214" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="37"/>
         <v>12-1-2008</v>
       </c>
       <c r="C214">
         <v>1</v>
       </c>
       <c r="D214">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v>12</v>
       </c>
       <c r="E214">
-        <f t="shared" si="27"/>
+        <f t="shared" si="38"/>
         <v>2008</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A215" s="1" t="s">
         <v>218</v>
       </c>
       <c r="B215" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="37"/>
         <v>12-1-2007</v>
       </c>
       <c r="C215">
         <v>1</v>
       </c>
       <c r="D215">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v>12</v>
       </c>
       <c r="E215">
-        <f t="shared" si="27"/>
+        <f t="shared" si="38"/>
         <v>2007</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A216" s="1" t="s">
         <v>219</v>
       </c>
       <c r="B216" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="37"/>
         <v>12-1-2006</v>
       </c>
       <c r="C216">
         <v>1</v>
       </c>
       <c r="D216">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v>12</v>
       </c>
       <c r="E216">
-        <f t="shared" si="27"/>
+        <f t="shared" si="38"/>
         <v>2006</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A217" s="1" t="s">
         <v>220</v>
       </c>
       <c r="B217" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="37"/>
         <v>12-1-2005</v>
       </c>
       <c r="C217">
         <v>1</v>
       </c>
       <c r="D217">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v>12</v>
       </c>
       <c r="E217">
